--- a/XLSX/INDICE_com_CORRESP_Pasta_de_Trabalho_13.xlsx
+++ b/XLSX/INDICE_com_CORRESP_Pasta_de_Trabalho_13.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coelh\Pessoal\TI\CURSOS\Hashtag\ExcelCompleto\Aulas\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801949B1-C06B-4B6F-B62F-2C1F33440BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF84276A-5B59-4D93-83F6-EB647FB2DFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
   </bookViews>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1809EF98-FC10-4422-B0BD-9E97AD3F071B}">
   <dimension ref="A1:K1674"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,8 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="14.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="11" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -636,7 +637,7 @@
         <v>28</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -670,7 +671,7 @@
       </c>
       <c r="K3" s="10" t="str">
         <f>INDEX($B$2:$H$1672,MATCH($K$1,$A$2:$A$1672,0),MATCH($K$2,$B$1:$H$1,0))</f>
-        <v>Plástico</v>
+        <v>Sim</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
